--- a/data_craw/quarter/income_statement_quarter/ocb.xlsx
+++ b/data_craw/quarter/income_statement_quarter/ocb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,45 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65981794248</v>
+        <v>48397159681</v>
       </c>
       <c r="C4" t="n">
-        <v>574830439363</v>
+        <v>111315025462</v>
       </c>
       <c r="D4" t="n">
-        <v>32066458517</v>
+        <v>157708875677</v>
       </c>
       <c r="E4" t="n">
-        <v>131952844492</v>
+        <v>172885839266</v>
       </c>
       <c r="F4" t="n">
-        <v>48397159681</v>
+        <v>46469421798</v>
       </c>
       <c r="G4" t="n">
-        <v>111315025462</v>
+        <v>186447606217</v>
       </c>
       <c r="H4" t="n">
-        <v>157708875677</v>
+        <v>112131531455</v>
       </c>
       <c r="I4" t="n">
-        <v>172885839266</v>
+        <v>226866158815</v>
       </c>
       <c r="J4" t="n">
-        <v>46469421798</v>
+        <v>98764514591</v>
       </c>
       <c r="K4" t="n">
-        <v>186447606217</v>
+        <v>345899650902</v>
       </c>
       <c r="L4" t="n">
-        <v>112131531455</v>
+        <v>56978571813</v>
       </c>
       <c r="M4" t="n">
-        <v>226866158815</v>
-      </c>
-      <c r="N4" t="n">
-        <v>98764514591</v>
-      </c>
-      <c r="O4" t="n">
-        <v>345899650902</v>
-      </c>
-      <c r="P4" t="n">
-        <v>56978571813</v>
-      </c>
-      <c r="Q4" t="n">
         <v>47989198756</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -628,53 +620,45 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23554595802</v>
+        <v>8920289647</v>
       </c>
       <c r="C5" t="n">
-        <v>9573263953</v>
+        <v>51482786794</v>
       </c>
       <c r="D5" t="n">
-        <v>5444666382</v>
+        <v>73454934451</v>
       </c>
       <c r="E5" t="n">
-        <v>46886306652</v>
+        <v>29570400220</v>
       </c>
       <c r="F5" t="n">
-        <v>8920289647</v>
+        <v>26772131886</v>
       </c>
       <c r="G5" t="n">
-        <v>51482786794</v>
+        <v>32816594797</v>
       </c>
       <c r="H5" t="n">
-        <v>73454934451</v>
+        <v>55024053985</v>
       </c>
       <c r="I5" t="n">
-        <v>29570400220</v>
+        <v>34267084410</v>
       </c>
       <c r="J5" t="n">
-        <v>26772131886</v>
+        <v>20923133057</v>
       </c>
       <c r="K5" t="n">
-        <v>32816594797</v>
+        <v>29306199285</v>
       </c>
       <c r="L5" t="n">
-        <v>55024053985</v>
+        <v>18427881067</v>
       </c>
       <c r="M5" t="n">
-        <v>34267084410</v>
-      </c>
-      <c r="N5" t="n">
-        <v>20923133057</v>
-      </c>
-      <c r="O5" t="n">
-        <v>29306199285</v>
-      </c>
-      <c r="P5" t="n">
-        <v>18427881067</v>
-      </c>
-      <c r="Q5" t="n">
         <v>20708697998</v>
       </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -706,53 +690,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>659730504475</v>
+        <v>517342466215</v>
       </c>
       <c r="C7" t="n">
-        <v>1028942622872</v>
+        <v>1526588178371</v>
       </c>
       <c r="D7" t="n">
-        <v>885522268857</v>
+        <v>1011751779244</v>
       </c>
       <c r="E7" t="n">
-        <v>605696071240</v>
+        <v>1107921561933</v>
       </c>
       <c r="F7" t="n">
-        <v>517342466215</v>
+        <v>885158417965</v>
       </c>
       <c r="G7" t="n">
-        <v>1526588178371</v>
+        <v>1400127208660</v>
       </c>
       <c r="H7" t="n">
-        <v>1011751779244</v>
+        <v>668258665539</v>
       </c>
       <c r="I7" t="n">
-        <v>1107921561933</v>
+        <v>722469050279</v>
       </c>
       <c r="J7" t="n">
-        <v>885158417965</v>
+        <v>727299080235</v>
       </c>
       <c r="K7" t="n">
-        <v>1400127208660</v>
+        <v>1391719656546</v>
       </c>
       <c r="L7" t="n">
-        <v>668258665539</v>
+        <v>786410836125</v>
       </c>
       <c r="M7" t="n">
-        <v>722469050279</v>
-      </c>
-      <c r="N7" t="n">
-        <v>727299080235</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1391719656546</v>
-      </c>
-      <c r="P7" t="n">
-        <v>786410836125</v>
-      </c>
-      <c r="Q7" t="n">
         <v>1260936594778</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
